--- a/excelEXIT/TESTES/excels/teste01.xlsx
+++ b/excelEXIT/TESTES/excels/teste01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>CODIGO</t>
   </si>
@@ -118,13 +118,19 @@
     <t>SITUAÇÃO</t>
   </si>
   <si>
-    <t>cerveja</t>
-  </si>
-  <si>
-    <t>kl</t>
+    <t>Macarrão</t>
+  </si>
+  <si>
+    <t>kg</t>
   </si>
   <si>
     <t>PRATELEIRA COZINHA</t>
+  </si>
+  <si>
+    <t>Feijão</t>
+  </si>
+  <si>
+    <t>Arroz</t>
   </si>
   <si>
     <t>PRATELEIRA PIA</t>
@@ -1926,13 +1932,13 @@
     </row>
     <row r="5" spans="1:12" customHeight="1" ht="15.75">
       <c r="B5" s="1">
-        <v>100001</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
@@ -1958,16 +1964,16 @@
     </row>
     <row r="6" spans="1:12" customHeight="1" ht="15.75">
       <c r="B6" s="1">
-        <v>100002</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -1988,9 +1994,15 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2002,9 +2014,15 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2016,9 +2034,15 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
